--- a/TRG/Vysledky_nove.xlsx
+++ b/TRG/Vysledky_nove.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phill\155VTTG_sk1\TRG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CBF3FE-C81D-4049-8C6B-734D08C6D470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFC312F-86D5-4900-95F7-8D390E65CC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3435" windowWidth="29040" windowHeight="15720" xr2:uid="{7DAB6478-1DE7-4088-A2F6-E45B549B8704}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7DAB6478-1DE7-4088-A2F6-E45B549B8704}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="98">
   <si>
     <t>97.1408411417759</t>
   </si>
@@ -327,6 +327,9 @@
   </si>
   <si>
     <t>12:55:17.4</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -700,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58DA192D-D1CA-4BBD-888F-FAE4C84E3488}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -715,7 +718,7 @@
     <col min="5" max="5" width="7.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -735,10 +738,13 @@
         <v>44</v>
       </c>
       <c r="G1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -757,11 +763,14 @@
       <c r="F2">
         <v>1004</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -780,11 +789,14 @@
       <c r="F3">
         <v>1004</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -803,11 +815,14 @@
       <c r="F4">
         <v>1004</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -826,11 +841,14 @@
       <c r="F5">
         <v>1004</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -849,11 +867,14 @@
       <c r="F6">
         <v>1004</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -872,11 +893,14 @@
       <c r="F7">
         <v>1004</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -895,11 +919,14 @@
       <c r="F8">
         <v>1004</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -918,11 +945,14 @@
       <c r="F9">
         <v>1004</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -941,11 +971,14 @@
       <c r="F10">
         <v>1004</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -964,11 +997,14 @@
       <c r="F11">
         <v>1004</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -987,11 +1023,14 @@
       <c r="F12">
         <v>1004</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -1010,11 +1049,14 @@
       <c r="F13">
         <v>1004</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -1033,11 +1075,14 @@
       <c r="F14">
         <v>1001</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -1056,11 +1101,14 @@
       <c r="F15">
         <v>1001</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -1079,11 +1127,14 @@
       <c r="F16">
         <v>1001</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -1102,11 +1153,14 @@
       <c r="F17">
         <v>1001</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -1125,11 +1179,14 @@
       <c r="F18">
         <v>1001</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>67</v>
       </c>
@@ -1148,11 +1205,14 @@
       <c r="F19">
         <v>1001</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -1171,11 +1231,14 @@
       <c r="F20">
         <v>1001</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>67</v>
       </c>
@@ -1194,11 +1257,14 @@
       <c r="F21">
         <v>1001</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -1217,11 +1283,14 @@
       <c r="F22">
         <v>1001</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -1240,11 +1309,14 @@
       <c r="F23">
         <v>1001</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -1263,11 +1335,14 @@
       <c r="F24">
         <v>1001</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>67</v>
       </c>
@@ -1286,11 +1361,14 @@
       <c r="F25">
         <v>1001</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -1309,11 +1387,14 @@
       <c r="F26">
         <v>1001</v>
       </c>
-      <c r="G26" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -1332,11 +1413,14 @@
       <c r="F27">
         <v>1001</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -1355,11 +1439,14 @@
       <c r="F28">
         <v>1001</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -1378,11 +1465,14 @@
       <c r="F29">
         <v>1001</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -1401,11 +1491,14 @@
       <c r="F30">
         <v>1001</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -1424,11 +1517,14 @@
       <c r="F31">
         <v>1001</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -1447,11 +1543,14 @@
       <c r="F32">
         <v>1001</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -1470,11 +1569,14 @@
       <c r="F33">
         <v>1001</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>87</v>
       </c>
@@ -1493,11 +1595,14 @@
       <c r="F34">
         <v>1002</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>87</v>
       </c>
@@ -1516,11 +1621,14 @@
       <c r="F35">
         <v>1002</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>87</v>
       </c>
@@ -1539,11 +1647,14 @@
       <c r="F36">
         <v>1002</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>87</v>
       </c>
@@ -1562,11 +1673,14 @@
       <c r="F37">
         <v>1002</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>87</v>
       </c>
@@ -1585,11 +1699,14 @@
       <c r="F38">
         <v>1002</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>87</v>
       </c>
@@ -1608,11 +1725,14 @@
       <c r="F39">
         <v>1002</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>87</v>
       </c>
@@ -1631,11 +1751,14 @@
       <c r="F40">
         <v>1002</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>87</v>
       </c>
@@ -1654,7 +1777,10 @@
       <c r="F41">
         <v>1002</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
         <v>31</v>
       </c>
     </row>
